--- a/data/thresholdESI.xlsx
+++ b/data/thresholdESI.xlsx
@@ -16,87 +16,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>农业科学</t>
-  </si>
-  <si>
-    <t>生物学与生物化学</t>
-  </si>
-  <si>
-    <t>化学</t>
-  </si>
-  <si>
-    <t>临床医学</t>
-  </si>
-  <si>
-    <t>计算机科学</t>
-  </si>
-  <si>
-    <t>经济与商业</t>
-  </si>
-  <si>
-    <t>工程学</t>
-  </si>
-  <si>
-    <t>环境科学与生态学</t>
-  </si>
-  <si>
-    <t>地球科学</t>
-  </si>
-  <si>
-    <t>免疫学</t>
-  </si>
-  <si>
-    <t>材料科学</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>微生物学</t>
-  </si>
-  <si>
-    <t>分子生物学与遗传学</t>
-  </si>
-  <si>
-    <t>综合交叉学科</t>
-  </si>
-  <si>
-    <t>神经系统学与行为学</t>
-  </si>
-  <si>
-    <t>药理学和毒理学</t>
-  </si>
-  <si>
-    <t>物理学</t>
-  </si>
-  <si>
-    <t>植物学与动物学</t>
-  </si>
-  <si>
-    <t>精神病学与心理学</t>
-  </si>
-  <si>
-    <t>社会科学总论</t>
-  </si>
-  <si>
-    <t>空间科学</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+  <si>
+    <t>阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学科门类 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阈值</t>
+    <t>工学（3）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学(Computer Science)</t>
+  </si>
+  <si>
+    <t>工程科学(Engineering)</t>
+  </si>
+  <si>
+    <t>材料科学(Materials Sciences)</t>
+  </si>
+  <si>
+    <t>生物与生化(Biology &amp; Biochemistry)</t>
+  </si>
+  <si>
+    <t>环境／生态学(Environment/Ecology)</t>
+  </si>
+  <si>
+    <t>微生物学(Microbiology)</t>
+  </si>
+  <si>
+    <t>分子生物与遗传学(Molecular Biology &amp; Genetics)</t>
+  </si>
+  <si>
+    <t>一般社会科学(Social Sciences, General)</t>
+  </si>
+  <si>
+    <t>经济与商学(Economics &amp; Business)</t>
+  </si>
+  <si>
+    <t>化学(Chemistry)</t>
+  </si>
+  <si>
+    <t>地球科学(Geosciences)</t>
+  </si>
+  <si>
+    <t>数学(Mathematics)</t>
+  </si>
+  <si>
+    <t>物理学(Physics)</t>
+  </si>
+  <si>
+    <t>空间科学(Space Science)</t>
+  </si>
+  <si>
+    <t>农业科学(Agricultural Sciences)</t>
+  </si>
+  <si>
+    <t>植物与动物科学(Plant &amp; Animal Science)</t>
+  </si>
+  <si>
+    <t>临床医学(Clinical Medicine)</t>
+  </si>
+  <si>
+    <t>免疫学(Immunology)</t>
+  </si>
+  <si>
+    <t>神经科学与行为(Neuroscience &amp; Behavior)</t>
+  </si>
+  <si>
+    <t>药理学与毒物学(Pharmacology &amp; Toxicology)</t>
+  </si>
+  <si>
+    <t>精神病学／心理学(Psychology/Psychiatry)</t>
+  </si>
+  <si>
+    <t>多学科(Multidisciplinary)</t>
+  </si>
+  <si>
+    <t>生命科学（4）</t>
+  </si>
+  <si>
+    <t>社会科学（2）</t>
+  </si>
+  <si>
+    <t>理学（5）</t>
+  </si>
+  <si>
+    <t>农学（2）</t>
+  </si>
+  <si>
+    <t>医学（5）</t>
+  </si>
+  <si>
+    <t>其他（1）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +137,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF393939"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,8 +168,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,198 +469,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>10243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>14029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C20">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5079</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>5981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3844</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>10243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>4959</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>14029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
+      <c r="C21">
         <v>3464</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
         <v>1142</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
         <v>27851</v>
       </c>
     </row>

--- a/data/thresholdESI.xlsx
+++ b/data/thresholdESI.xlsx
@@ -16,19 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
-  <si>
-    <t>阈值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">学科门类 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>工学（3）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +104,26 @@
   </si>
   <si>
     <t>其他（1）</t>
+  </si>
+  <si>
+    <t>threshold2020-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold2020-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold2020-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discipline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -469,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -481,177 +489,183 @@
     <col min="2" max="2" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>1692</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>5079</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>5981</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1855</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2837</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>3549</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1876</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>3319</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>4795</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>3844</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>3918</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>3620</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>4421</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>10243</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>2087</v>
@@ -659,10 +673,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>4959</v>
@@ -670,10 +684,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>2864</v>
@@ -681,10 +695,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>14029</v>
@@ -692,10 +706,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>2236</v>
@@ -703,10 +717,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>3464</v>
@@ -714,10 +728,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>1142</v>
@@ -725,10 +739,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>27851</v>

--- a/data/thresholdESI.xlsx
+++ b/data/thresholdESI.xlsx
@@ -106,23 +106,23 @@
     <t>其他（1）</t>
   </si>
   <si>
-    <t>threshold2020-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>threshold2020-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>threshold2020-07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>discipline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold202003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold202005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold202007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -489,24 +489,24 @@
     <col min="2" max="2" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>5079</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>5981</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -550,7 +550,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -561,7 +561,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -572,7 +572,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -583,7 +583,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -594,7 +594,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -605,7 +605,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -616,7 +616,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -627,7 +627,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -638,7 +638,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -649,7 +649,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -660,7 +660,7 @@
         <v>10243</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
